--- a/Pending-Review/AzureTasks Tags Mappingv2.0.xlsx
+++ b/Pending-Review/AzureTasks Tags Mappingv2.0.xlsx
@@ -2057,6 +2057,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,233 +2075,224 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2317,7 +2317,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="15">
     <dxf>
       <font>
         <b/>
@@ -2405,161 +2405,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="dashed">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="dashed">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="dashed">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -2589,90 +2434,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4008,22 +3769,22 @@
   </sheetData>
   <autoFilter ref="A1:K21"/>
   <conditionalFormatting sqref="J22:J1048576 J1:J20">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>IF(J1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B24 B61:B1048576">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>IF(J1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H20 H25:H1048576">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>IF(AND(H1&lt;TODAY(),AND(J1&lt;&gt;"Completed",J1&lt;&gt;"Script-Ready")),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>IF(J21="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4632,16 +4393,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>321</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>281</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -4660,12 +4421,12 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="43" t="s">
         <v>19</v>
       </c>
@@ -4679,12 +4440,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
@@ -4698,12 +4459,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
@@ -4717,12 +4478,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -4738,12 +4499,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="43" t="s">
         <v>19</v>
       </c>
@@ -4759,12 +4520,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="43" t="s">
         <v>19</v>
       </c>
@@ -4778,12 +4539,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="43" t="s">
         <v>19</v>
       </c>
@@ -4797,12 +4558,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
@@ -4816,12 +4577,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="43" t="s">
         <v>19</v>
       </c>
@@ -4835,12 +4596,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="43" t="s">
         <v>19</v>
       </c>
@@ -4854,12 +4615,12 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="162"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="44" t="s">
         <v>19</v>
       </c>
@@ -4873,12 +4634,12 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="162"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="44" t="s">
         <v>19</v>
       </c>
@@ -4894,12 +4655,12 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="162"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="44" t="s">
         <v>19</v>
       </c>
@@ -4915,12 +4676,12 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="162"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="44" t="s">
         <v>19</v>
       </c>
@@ -4936,12 +4697,12 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="44" t="s">
         <v>19</v>
       </c>
@@ -4959,12 +4720,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="44" t="s">
         <v>19</v>
       </c>
@@ -4980,12 +4741,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="44" t="s">
         <v>19</v>
       </c>
@@ -5000,12 +4761,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="D20" s="162"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="44" t="s">
         <v>19</v>
       </c>
@@ -5020,12 +4781,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="D21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="44" t="s">
         <v>19</v>
       </c>
@@ -5038,12 +4799,12 @@
       <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="162"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="44" t="s">
         <v>19</v>
       </c>
@@ -5116,10 +4877,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="165" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -5142,8 +4903,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
@@ -5160,8 +4921,8 @@
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
@@ -5178,8 +4939,8 @@
       <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
@@ -5196,8 +4957,8 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="164"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
@@ -5216,8 +4977,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
@@ -5236,8 +4997,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="45" t="s">
         <v>103</v>
       </c>
@@ -5254,8 +5015,8 @@
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="45" t="s">
         <v>361</v>
       </c>
@@ -5272,8 +5033,8 @@
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="164"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="55" t="s">
         <v>362</v>
       </c>
@@ -5290,8 +5051,8 @@
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="45" t="s">
         <v>363</v>
       </c>
@@ -5369,16 +5130,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -5396,12 +5157,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="43" t="s">
         <v>19</v>
       </c>
@@ -5415,12 +5176,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
@@ -5434,12 +5195,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
@@ -5453,12 +5214,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -5474,12 +5235,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="43" t="s">
         <v>19</v>
       </c>
@@ -5495,12 +5256,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="43" t="s">
         <v>80</v>
       </c>
@@ -5514,12 +5275,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="43" t="s">
         <v>19</v>
       </c>
@@ -5533,12 +5294,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
@@ -5552,12 +5313,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="43" t="s">
         <v>19</v>
       </c>
@@ -5571,12 +5332,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="44" t="s">
         <v>19</v>
       </c>
@@ -5590,12 +5351,12 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="162"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="44" t="s">
         <v>19</v>
       </c>
@@ -5611,12 +5372,12 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="162"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="44" t="s">
         <v>19</v>
       </c>
@@ -5632,12 +5393,12 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="162"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="44" t="s">
         <v>19</v>
       </c>
@@ -5653,12 +5414,12 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="162"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="44" t="s">
         <v>19</v>
       </c>
@@ -5674,12 +5435,12 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="44" t="s">
         <v>80</v>
       </c>
@@ -5695,12 +5456,12 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="44" t="s">
         <v>19</v>
       </c>
@@ -5714,12 +5475,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="44" t="s">
         <v>19</v>
       </c>
@@ -5734,12 +5495,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="162"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="61" t="s">
         <v>19</v>
       </c>
@@ -5754,12 +5515,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="D21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="61" t="s">
         <v>19</v>
       </c>
@@ -5835,16 +5596,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -5862,12 +5623,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -5881,12 +5642,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -5900,12 +5661,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -5919,12 +5680,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -5940,12 +5701,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -5961,12 +5722,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -5980,12 +5741,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -6001,12 +5762,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -6077,16 +5838,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>226</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>297</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -6104,12 +5865,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -6123,12 +5884,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -6142,12 +5903,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -6161,12 +5922,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -6182,12 +5943,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -6203,12 +5964,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -6224,12 +5985,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -6245,12 +6006,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -6325,16 +6086,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -6352,12 +6113,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -6371,12 +6132,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -6390,12 +6151,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -6409,12 +6170,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -6430,12 +6191,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -6451,12 +6212,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -6472,12 +6233,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -6493,12 +6254,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -6511,12 +6272,12 @@
       <c r="H10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="45" t="s">
         <v>19</v>
       </c>
@@ -6589,16 +6350,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>295</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -6616,12 +6377,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -6635,12 +6396,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -6654,12 +6415,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -6673,12 +6434,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -6694,12 +6455,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -6715,12 +6476,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -6736,12 +6497,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -6757,12 +6518,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -6775,12 +6536,12 @@
       <c r="H10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="45" t="s">
         <v>19</v>
       </c>
@@ -6793,12 +6554,12 @@
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="45" t="s">
         <v>19</v>
       </c>
@@ -6871,14 +6632,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>390</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -6896,12 +6657,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -6915,12 +6676,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -6934,12 +6695,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -6953,12 +6714,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -6974,12 +6735,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -6995,12 +6756,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -7016,12 +6777,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -7037,12 +6798,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -7114,14 +6875,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="43" t="s">
         <v>19</v>
       </c>
@@ -7137,12 +6898,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -7156,12 +6917,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -7175,12 +6936,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -7194,12 +6955,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -7215,12 +6976,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -7236,10 +6997,10 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -7249,10 +7010,10 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -7262,10 +7023,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -7351,10 +7112,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127">
+      <c r="A2" s="130">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="124" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="73" t="s">
@@ -7389,8 +7150,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="122"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="125"/>
       <c r="C3" s="73" t="s">
         <v>190</v>
       </c>
@@ -7423,8 +7184,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="122"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="73" t="s">
         <v>405</v>
       </c>
@@ -7452,8 +7213,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="73" t="s">
         <v>184</v>
       </c>
@@ -7486,10 +7247,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="130">
+      <c r="A6" s="133">
         <v>2</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="127" t="s">
         <v>186</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -7524,8 +7285,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="131"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="21" t="s">
         <v>195</v>
       </c>
@@ -7558,8 +7319,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="131"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="21" t="s">
         <v>196</v>
       </c>
@@ -7592,8 +7353,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="21" t="s">
         <v>197</v>
       </c>
@@ -7626,8 +7387,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="21" t="s">
         <v>198</v>
       </c>
@@ -7669,28 +7430,28 @@
       <c r="C11" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="87">
         <v>42506</v>
       </c>
-      <c r="I11" s="99">
+      <c r="I11" s="87">
         <v>42524</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="87">
         <v>42523</v>
       </c>
-      <c r="K11" s="99" t="s">
+      <c r="K11" s="87" t="s">
         <v>313</v>
       </c>
       <c r="L11" t="s">
@@ -7703,14 +7464,14 @@
       <c r="C12" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
     </row>
     <row r="13" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="141"/>
@@ -7718,14 +7479,14 @@
       <c r="C13" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="142"/>
@@ -7855,28 +7616,28 @@
       <c r="C18" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="87">
         <v>42576</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="87">
         <v>42579</v>
       </c>
-      <c r="J18" s="99">
+      <c r="J18" s="87">
         <v>42579</v>
       </c>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="87" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7886,20 +7647,20 @@
       <c r="C19" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="101"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="133">
+      <c r="A20" s="120">
         <v>4</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="145" t="s">
         <v>207</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -7931,8 +7692,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="28" t="s">
         <v>209</v>
       </c>
@@ -7962,8 +7723,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="28" t="s">
         <v>210</v>
       </c>
@@ -7993,8 +7754,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="28" t="s">
         <v>211</v>
       </c>
@@ -8024,10 +7785,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="133">
+      <c r="A24" s="120">
         <v>5</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="145" t="s">
         <v>212</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -8059,8 +7820,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="103"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="28" t="s">
         <v>213</v>
       </c>
@@ -8090,8 +7851,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
-      <c r="B26" s="103"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="28" t="s">
         <v>406</v>
       </c>
@@ -8121,8 +7882,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="28" t="s">
         <v>214</v>
       </c>
@@ -8152,74 +7913,74 @@
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="133">
+      <c r="A28" s="120">
         <v>6</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="145" t="s">
         <v>215</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="92" t="s">
+      <c r="E28" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="G28" s="92" t="s">
+      <c r="G28" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="92" t="s">
+      <c r="I28" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="J28" s="92" t="s">
+      <c r="J28" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="159" t="s">
+      <c r="K28" s="93" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="134"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="160"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="94"/>
       <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="134"/>
-      <c r="B30" s="103"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="161"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="95"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="28" t="s">
         <v>219</v>
       </c>
@@ -8252,8 +8013,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="134"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="28" t="s">
         <v>220</v>
       </c>
@@ -8283,8 +8044,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="28" t="s">
         <v>214</v>
       </c>
@@ -8314,10 +8075,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="144">
+      <c r="A34" s="117">
         <v>7</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="149" t="s">
         <v>221</v>
       </c>
       <c r="C34" s="29" t="s">
@@ -8349,8 +8110,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="147"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="29" t="s">
         <v>223</v>
       </c>
@@ -8380,8 +8141,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="147"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="29" t="s">
         <v>224</v>
       </c>
@@ -8411,8 +8172,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="29" t="s">
         <v>225</v>
       </c>
@@ -8445,8 +8206,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="29" t="s">
         <v>226</v>
       </c>
@@ -8476,8 +8237,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="29" t="s">
         <v>227</v>
       </c>
@@ -8505,8 +8266,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="146"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="29" t="s">
         <v>228</v>
       </c>
@@ -8536,8 +8297,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="146"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="29" t="s">
         <v>277</v>
       </c>
@@ -8567,8 +8328,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="147"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="29" t="s">
         <v>284</v>
       </c>
@@ -8598,8 +8359,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="109"/>
+      <c r="A43" s="118"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="29" t="s">
         <v>229</v>
       </c>
@@ -8629,10 +8390,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="144">
+      <c r="A44" s="117">
         <v>8</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="149" t="s">
         <v>230</v>
       </c>
       <c r="C44" s="29" t="s">
@@ -8662,8 +8423,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="29" t="s">
         <v>232</v>
       </c>
@@ -8691,8 +8452,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="29" t="s">
         <v>233</v>
       </c>
@@ -8722,10 +8483,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="144">
+      <c r="A47" s="117">
         <v>9</v>
       </c>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="149" t="s">
         <v>235</v>
       </c>
       <c r="C47" s="29" t="s">
@@ -8757,8 +8518,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="145"/>
-      <c r="B48" s="109"/>
+      <c r="A48" s="118"/>
+      <c r="B48" s="150"/>
       <c r="C48" s="29" t="s">
         <v>236</v>
       </c>
@@ -8788,10 +8549,10 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="150">
+      <c r="A49" s="108">
         <v>10</v>
       </c>
-      <c r="B49" s="148" t="s">
+      <c r="B49" s="106" t="s">
         <v>237</v>
       </c>
       <c r="C49" s="20" t="s">
@@ -8823,8 +8584,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="151"/>
-      <c r="B50" s="156"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="114"/>
       <c r="C50" s="20" t="s">
         <v>223</v>
       </c>
@@ -8854,8 +8615,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="151"/>
-      <c r="B51" s="156"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="114"/>
       <c r="C51" s="20" t="s">
         <v>224</v>
       </c>
@@ -8885,8 +8646,8 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="152"/>
-      <c r="B52" s="155"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="20" t="s">
         <v>239</v>
       </c>
@@ -8916,8 +8677,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
-      <c r="B53" s="155"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="20" t="s">
         <v>277</v>
       </c>
@@ -8947,8 +8708,8 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
-      <c r="B54" s="156"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="20" t="s">
         <v>284</v>
       </c>
@@ -8978,8 +8739,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
-      <c r="B55" s="156"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="20" t="s">
         <v>285</v>
       </c>
@@ -9009,8 +8770,8 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="152"/>
-      <c r="B56" s="149"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="20" t="s">
         <v>240</v>
       </c>
@@ -9040,54 +8801,54 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
-      <c r="B57" s="148" t="s">
+      <c r="A57" s="110"/>
+      <c r="B57" s="106" t="s">
         <v>255</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="E57" s="89" t="s">
+      <c r="E57" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="G57" s="89" t="s">
+      <c r="G57" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="H57" s="87">
+      <c r="H57" s="90">
         <v>42594</v>
       </c>
-      <c r="I57" s="87">
+      <c r="I57" s="90">
         <v>42599</v>
       </c>
-      <c r="J57" s="89"/>
+      <c r="J57" s="92"/>
       <c r="K57" s="35" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="155"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="96"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
       <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="152"/>
-      <c r="B59" s="149"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="20" t="s">
         <v>243</v>
       </c>
@@ -9117,8 +8878,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="152"/>
-      <c r="B60" s="148" t="s">
+      <c r="A60" s="110"/>
+      <c r="B60" s="106" t="s">
         <v>254</v>
       </c>
       <c r="C60" s="20" t="s">
@@ -9148,8 +8909,8 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="152"/>
-      <c r="B61" s="155"/>
+      <c r="A61" s="110"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="20" t="s">
         <v>245</v>
       </c>
@@ -9179,8 +8940,8 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="152"/>
-      <c r="B62" s="155"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="20" t="s">
         <v>246</v>
       </c>
@@ -9210,8 +8971,8 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="152"/>
-      <c r="B63" s="155"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="20" t="s">
         <v>247</v>
       </c>
@@ -9241,52 +9002,52 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="152"/>
-      <c r="B64" s="155"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="113"/>
       <c r="C64" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="95" t="s">
+      <c r="D64" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="E64" s="89" t="s">
+      <c r="E64" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="89" t="s">
+      <c r="F64" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="G64" s="89" t="s">
+      <c r="G64" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="H64" s="87">
+      <c r="H64" s="90">
         <v>42605</v>
       </c>
-      <c r="I64" s="87">
+      <c r="I64" s="90">
         <v>42608</v>
       </c>
-      <c r="J64" s="89"/>
+      <c r="J64" s="92"/>
       <c r="K64" s="35" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="152"/>
-      <c r="B65" s="155"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="113"/>
       <c r="C65" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D65" s="96"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
       <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
-      <c r="B66" s="149"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="20" t="s">
         <v>250</v>
       </c>
@@ -9314,8 +9075,8 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
-      <c r="B67" s="148" t="s">
+      <c r="A67" s="110"/>
+      <c r="B67" s="106" t="s">
         <v>253</v>
       </c>
       <c r="C67" s="20" t="s">
@@ -9347,8 +9108,8 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="152"/>
-      <c r="B68" s="155"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="20" t="s">
         <v>286</v>
       </c>
@@ -9378,8 +9139,8 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="149"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="20" t="s">
         <v>252</v>
       </c>
@@ -9407,8 +9168,8 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="151"/>
-      <c r="B70" s="156"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="114"/>
       <c r="C70" s="20" t="s">
         <v>256</v>
       </c>
@@ -9438,8 +9199,8 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="152"/>
-      <c r="B71" s="157"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="115"/>
       <c r="C71" s="20" t="s">
         <v>257</v>
       </c>
@@ -9469,8 +9230,8 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="151"/>
-      <c r="B72" s="156"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="20" t="s">
         <v>258</v>
       </c>
@@ -9500,8 +9261,8 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="152"/>
-      <c r="B73" s="148" t="s">
+      <c r="A73" s="110"/>
+      <c r="B73" s="106" t="s">
         <v>261</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -9531,8 +9292,8 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="152"/>
-      <c r="B74" s="149"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="20" t="s">
         <v>260</v>
       </c>
@@ -9560,7 +9321,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="151"/>
+      <c r="A75" s="109"/>
       <c r="B75" s="19" t="s">
         <v>262</v>
       </c>
@@ -9593,7 +9354,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="152"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="20" t="s">
         <v>264</v>
       </c>
@@ -9620,8 +9381,8 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
-      <c r="B77" s="148" t="s">
+      <c r="A77" s="110"/>
+      <c r="B77" s="106" t="s">
         <v>266</v>
       </c>
       <c r="C77" s="20" t="s">
@@ -9647,8 +9408,8 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
-      <c r="B78" s="149"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="20" t="s">
         <v>268</v>
       </c>
@@ -9672,8 +9433,8 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="152"/>
-      <c r="B79" s="148" t="s">
+      <c r="A79" s="110"/>
+      <c r="B79" s="106" t="s">
         <v>269</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -9699,8 +9460,8 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="153"/>
-      <c r="B80" s="149"/>
+      <c r="A80" s="111"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="20" t="s">
         <v>271</v>
       </c>
@@ -9724,10 +9485,10 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="158">
+      <c r="A81" s="116">
         <v>11</v>
       </c>
-      <c r="B81" s="154" t="s">
+      <c r="B81" s="112" t="s">
         <v>273</v>
       </c>
       <c r="C81" s="78" t="s">
@@ -9759,62 +9520,62 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="158"/>
-      <c r="B82" s="154"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="112"/>
       <c r="C82" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="D82" s="97" t="s">
+      <c r="D82" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="E82" s="91" t="s">
+      <c r="E82" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="91" t="s">
+      <c r="F82" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="G82" s="91" t="s">
+      <c r="G82" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="H82" s="90">
+      <c r="H82" s="161">
         <v>42613</v>
       </c>
-      <c r="I82" s="90">
+      <c r="I82" s="161">
         <v>42615</v>
       </c>
-      <c r="J82" s="91"/>
+      <c r="J82" s="160"/>
       <c r="K82" s="35" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="158"/>
-      <c r="B83" s="154"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="112"/>
       <c r="C83" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="D83" s="98"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
+      <c r="D83" s="159"/>
+      <c r="E83" s="160"/>
+      <c r="F83" s="160"/>
+      <c r="G83" s="160"/>
+      <c r="H83" s="160"/>
+      <c r="I83" s="160"/>
+      <c r="J83" s="160"/>
       <c r="K83" s="35"/>
     </row>
     <row r="84" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="158"/>
-      <c r="B84" s="154"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="112"/>
       <c r="C84" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="D84" s="98"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
       <c r="K84" s="35"/>
     </row>
   </sheetData>
@@ -9826,47 +9587,23 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A49:A80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="F11:F13"/>
@@ -9883,74 +9620,98 @@
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A49:A80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K28:K30"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K5 K31:K32 K14:K18 K20:K22 K25:K26 K28 K34">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>IF(K1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D10 D14:D15 D20:D28 D18 D31:D33">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>IF(L1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>IF(K6="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>IF(K7="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>IF(K8="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>IF(L11="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(K11="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF(K24="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:D1048576 D1:D82">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K84">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(K35="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Script-Ready">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10028,14 +9789,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="43" t="s">
         <v>19</v>
       </c>
@@ -10051,12 +9812,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -10070,12 +9831,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -10089,12 +9850,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -10108,12 +9869,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -10129,12 +9890,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -10150,10 +9911,10 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -10163,10 +9924,10 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -10176,10 +9937,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -10259,16 +10020,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="164" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -10288,12 +10049,12 @@
       <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="165"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="43" t="s">
         <v>19</v>
       </c>
@@ -10309,12 +10070,12 @@
       <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
@@ -10330,12 +10091,12 @@
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="165"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
@@ -10351,12 +10112,12 @@
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="165"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -10376,12 +10137,12 @@
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -10401,12 +10162,12 @@
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -10426,12 +10187,12 @@
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -10447,16 +10208,16 @@
       <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163">
+      <c r="A10" s="162">
         <v>2</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="163" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="163" t="s">
         <v>162</v>
       </c>
       <c r="E10" s="43" t="s">
@@ -10477,12 +10238,12 @@
       <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="43" t="s">
         <v>19</v>
       </c>
@@ -10499,12 +10260,12 @@
       <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="43" t="s">
         <v>19</v>
       </c>
@@ -10521,12 +10282,12 @@
       <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="162"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="43" t="s">
         <v>19</v>
       </c>
@@ -10543,12 +10304,12 @@
       <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="162"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="43" t="s">
         <v>19</v>
       </c>
@@ -10567,12 +10328,12 @@
       <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="162"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="43" t="s">
         <v>19</v>
       </c>
@@ -10591,12 +10352,12 @@
       <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="162"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="43" t="s">
         <v>80</v>
       </c>
@@ -10615,12 +10376,12 @@
       <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="43" t="s">
         <v>19</v>
       </c>
@@ -10639,12 +10400,12 @@
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="43" t="s">
         <v>19</v>
       </c>
@@ -10663,12 +10424,12 @@
       <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="43" t="s">
         <v>19</v>
       </c>
@@ -10685,12 +10446,12 @@
       <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="162"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="45" t="s">
         <v>19</v>
       </c>
@@ -10709,12 +10470,12 @@
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="45" t="s">
         <v>19</v>
       </c>
@@ -10733,12 +10494,12 @@
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="162"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="45" t="s">
         <v>19</v>
       </c>
@@ -10757,12 +10518,12 @@
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="45" t="s">
         <v>19</v>
       </c>
@@ -10781,16 +10542,16 @@
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="163">
+      <c r="A24" s="162">
         <v>3</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="163" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="164" t="s">
+      <c r="D24" s="165" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="43" t="s">
@@ -10810,12 +10571,12 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="164"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="43" t="s">
         <v>80</v>
       </c>
@@ -10833,12 +10594,12 @@
       <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
-      <c r="B26" s="162"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="164"/>
+      <c r="D26" s="165"/>
       <c r="E26" s="43" t="s">
         <v>19</v>
       </c>
@@ -10856,12 +10617,12 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
-      <c r="B27" s="162"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="43" t="s">
         <v>19</v>
       </c>
@@ -10879,12 +10640,12 @@
       <c r="K27" s="43"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="163"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="164"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="43" t="s">
         <v>19</v>
       </c>
@@ -10902,12 +10663,12 @@
       <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="163"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="162"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="164"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="43" t="s">
         <v>80</v>
       </c>
@@ -10925,12 +10686,12 @@
       <c r="K29" s="43"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="163"/>
-      <c r="B30" s="162"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="164"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="43" t="s">
         <v>19</v>
       </c>
@@ -10948,16 +10709,16 @@
       <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163">
+      <c r="A31" s="162">
         <v>4</v>
       </c>
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="163" t="s">
         <v>321</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="164" t="s">
+      <c r="D31" s="165" t="s">
         <v>281</v>
       </c>
       <c r="E31" s="43" t="s">
@@ -10975,12 +10736,12 @@
       <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="163"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="164"/>
+      <c r="D32" s="165"/>
       <c r="E32" s="43" t="s">
         <v>19</v>
       </c>
@@ -10996,12 +10757,12 @@
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="164"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="43" t="s">
         <v>19</v>
       </c>
@@ -11017,12 +10778,12 @@
       <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="164"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="45" t="s">
         <v>19</v>
       </c>
@@ -11040,12 +10801,12 @@
       <c r="K34" s="43"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="164"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="43" t="s">
         <v>19</v>
       </c>
@@ -11065,12 +10826,12 @@
       <c r="K35" s="43"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="163"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="164"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="43" t="s">
         <v>80</v>
       </c>
@@ -11089,12 +10850,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="162"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="164"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="43" t="s">
         <v>19</v>
       </c>
@@ -11113,12 +10874,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="163"/>
-      <c r="B38" s="162"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="43" t="s">
         <v>19</v>
       </c>
@@ -11137,12 +10898,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
-      <c r="B39" s="162"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="164"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="43" t="s">
         <v>19</v>
       </c>
@@ -11158,12 +10919,12 @@
       <c r="K39" s="43"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="164"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="44" t="s">
         <v>19</v>
       </c>
@@ -11179,12 +10940,12 @@
       <c r="K40" s="43"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="164"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="44" t="s">
         <v>19</v>
       </c>
@@ -11204,12 +10965,12 @@
       <c r="K41" s="43"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="163"/>
-      <c r="B42" s="162"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="164"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="44" t="s">
         <v>19</v>
       </c>
@@ -11229,12 +10990,12 @@
       <c r="K42" s="43"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="163"/>
-      <c r="B43" s="162"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="163"/>
       <c r="C43" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="164"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="44" t="s">
         <v>19</v>
       </c>
@@ -11254,12 +11015,12 @@
       <c r="K43" s="43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="163"/>
-      <c r="B44" s="162"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="164"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="44" t="s">
         <v>19</v>
       </c>
@@ -11279,12 +11040,12 @@
       <c r="K44" s="43"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="163"/>
-      <c r="B45" s="162"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="164"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="44" t="s">
         <v>80</v>
       </c>
@@ -11302,12 +11063,12 @@
       <c r="K45" s="43"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
-      <c r="B46" s="162"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="164"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="44" t="s">
         <v>19</v>
       </c>
@@ -11323,12 +11084,12 @@
       <c r="K46" s="43"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="163"/>
-      <c r="B47" s="162"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="164"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="44" t="s">
         <v>19</v>
       </c>
@@ -11344,16 +11105,16 @@
       <c r="K47" s="43"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="163">
+      <c r="A48" s="162">
         <v>5</v>
       </c>
-      <c r="B48" s="162" t="s">
+      <c r="B48" s="163" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="164" t="s">
+      <c r="D48" s="165" t="s">
         <v>283</v>
       </c>
       <c r="E48" s="43" t="s">
@@ -11371,12 +11132,12 @@
       <c r="K48" s="43"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="163"/>
       <c r="C49" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="43" t="s">
         <v>19</v>
       </c>
@@ -11392,12 +11153,12 @@
       <c r="K49" s="43"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="163"/>
-      <c r="B50" s="162"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="164"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="43" t="s">
         <v>19</v>
       </c>
@@ -11413,12 +11174,12 @@
       <c r="K50" s="43"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="163"/>
-      <c r="B51" s="162"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="164"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="45" t="s">
         <v>19</v>
       </c>
@@ -11436,12 +11197,12 @@
       <c r="K51" s="43"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="163"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="163"/>
       <c r="C52" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="164"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="43" t="s">
         <v>19</v>
       </c>
@@ -11461,12 +11222,12 @@
       <c r="K52" s="43"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="163"/>
-      <c r="B53" s="162"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="163"/>
       <c r="C53" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="164"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="43" t="s">
         <v>80</v>
       </c>
@@ -11485,12 +11246,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="163"/>
-      <c r="B54" s="162"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="164"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="43" t="s">
         <v>19</v>
       </c>
@@ -11509,12 +11270,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
-      <c r="B55" s="162"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="163"/>
       <c r="C55" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="164"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="43" t="s">
         <v>19</v>
       </c>
@@ -11533,12 +11294,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="163"/>
-      <c r="B56" s="162"/>
+      <c r="A56" s="162"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="164"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="43" t="s">
         <v>19</v>
       </c>
@@ -11554,12 +11315,12 @@
       <c r="K56" s="43"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
-      <c r="B57" s="162"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="163"/>
       <c r="C57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="164"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="44" t="s">
         <v>19</v>
       </c>
@@ -11575,12 +11336,12 @@
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
-      <c r="B58" s="162"/>
+      <c r="A58" s="162"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="164"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="44" t="s">
         <v>19</v>
       </c>
@@ -11600,12 +11361,12 @@
       <c r="K58" s="43"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="162"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="164"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="44" t="s">
         <v>19</v>
       </c>
@@ -11625,12 +11386,12 @@
       <c r="K59" s="43"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
-      <c r="B60" s="162"/>
+      <c r="A60" s="162"/>
+      <c r="B60" s="163"/>
       <c r="C60" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="44" t="s">
         <v>19</v>
       </c>
@@ -11650,12 +11411,12 @@
       <c r="K60" s="43"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
-      <c r="B61" s="162"/>
+      <c r="A61" s="162"/>
+      <c r="B61" s="163"/>
       <c r="C61" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="164"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="44" t="s">
         <v>19</v>
       </c>
@@ -11673,12 +11434,12 @@
       <c r="K61" s="43"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
-      <c r="B62" s="162"/>
+      <c r="A62" s="162"/>
+      <c r="B62" s="163"/>
       <c r="C62" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="164"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="44" t="s">
         <v>80</v>
       </c>
@@ -11696,12 +11457,12 @@
       <c r="K62" s="43"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
-      <c r="B63" s="162"/>
+      <c r="A63" s="162"/>
+      <c r="B63" s="163"/>
       <c r="C63" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="164"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="44" t="s">
         <v>19</v>
       </c>
@@ -11717,12 +11478,12 @@
       <c r="K63" s="43"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="163"/>
-      <c r="B64" s="162"/>
+      <c r="A64" s="162"/>
+      <c r="B64" s="163"/>
       <c r="C64" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="164"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="44" t="s">
         <v>19</v>
       </c>
@@ -11740,16 +11501,16 @@
       <c r="K64" s="43"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="163">
+      <c r="A65" s="162">
         <v>6</v>
       </c>
-      <c r="B65" s="162" t="s">
+      <c r="B65" s="163" t="s">
         <v>143</v>
       </c>
       <c r="C65" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="164" t="s">
+      <c r="D65" s="165" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="43" t="s">
@@ -11767,12 +11528,12 @@
       <c r="K65" s="43"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="163"/>
-      <c r="B66" s="162"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="164"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="43" t="s">
         <v>19</v>
       </c>
@@ -11788,12 +11549,12 @@
       <c r="K66" s="43"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
-      <c r="B67" s="162"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="164"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="43" t="s">
         <v>19</v>
       </c>
@@ -11809,16 +11570,16 @@
       <c r="K67" s="43"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="163">
+      <c r="A68" s="162">
         <v>7</v>
       </c>
-      <c r="B68" s="162" t="s">
+      <c r="B68" s="163" t="s">
         <v>145</v>
       </c>
       <c r="C68" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="164" t="s">
+      <c r="D68" s="165" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="43" t="s">
@@ -11836,12 +11597,12 @@
       <c r="K68" s="43"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="163"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="162"/>
+      <c r="B69" s="163"/>
       <c r="C69" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="164"/>
+      <c r="D69" s="165"/>
       <c r="E69" s="43" t="s">
         <v>19</v>
       </c>
@@ -11857,12 +11618,12 @@
       <c r="K69" s="43"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="163"/>
-      <c r="B70" s="162"/>
+      <c r="A70" s="162"/>
+      <c r="B70" s="163"/>
       <c r="C70" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="164"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="43" t="s">
         <v>19</v>
       </c>
@@ -11878,16 +11639,16 @@
       <c r="K70" s="43"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="163">
+      <c r="A71" s="162">
         <v>8</v>
       </c>
-      <c r="B71" s="162" t="s">
+      <c r="B71" s="163" t="s">
         <v>144</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="164" t="s">
+      <c r="D71" s="165" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="43" t="s">
@@ -11905,12 +11666,12 @@
       <c r="K71" s="43"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="163"/>
-      <c r="B72" s="162"/>
+      <c r="A72" s="162"/>
+      <c r="B72" s="163"/>
       <c r="C72" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="164"/>
+      <c r="D72" s="165"/>
       <c r="E72" s="43" t="s">
         <v>19</v>
       </c>
@@ -11926,12 +11687,12 @@
       <c r="K72" s="43"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="163"/>
-      <c r="B73" s="162"/>
+      <c r="A73" s="162"/>
+      <c r="B73" s="163"/>
       <c r="C73" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="164"/>
+      <c r="D73" s="165"/>
       <c r="E73" s="43" t="s">
         <v>19</v>
       </c>
@@ -11947,16 +11708,16 @@
       <c r="K73" s="43"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="163">
+      <c r="A74" s="162">
         <v>9</v>
       </c>
-      <c r="B74" s="162" t="s">
+      <c r="B74" s="163" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="164" t="s">
+      <c r="D74" s="165" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="43" t="s">
@@ -11974,12 +11735,12 @@
       <c r="K74" s="43"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
-      <c r="B75" s="162"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="163"/>
       <c r="C75" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="164"/>
+      <c r="D75" s="165"/>
       <c r="E75" s="43" t="s">
         <v>19</v>
       </c>
@@ -11995,12 +11756,12 @@
       <c r="K75" s="43"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="163"/>
-      <c r="B76" s="162"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="163"/>
       <c r="C76" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="164"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="43" t="s">
         <v>19</v>
       </c>
@@ -12016,12 +11777,12 @@
       <c r="K76" s="43"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="163"/>
-      <c r="B77" s="162"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="163"/>
       <c r="C77" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="164"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="43" t="s">
         <v>19</v>
       </c>
@@ -12041,12 +11802,12 @@
       <c r="K77" s="43"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="163"/>
-      <c r="B78" s="162"/>
+      <c r="A78" s="162"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="164"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="45" t="s">
         <v>19</v>
       </c>
@@ -12064,16 +11825,16 @@
       <c r="K78" s="43"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="163">
+      <c r="A79" s="162">
         <v>10</v>
       </c>
-      <c r="B79" s="162" t="s">
+      <c r="B79" s="163" t="s">
         <v>155</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="164" t="s">
+      <c r="D79" s="165" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="43" t="s">
@@ -12091,12 +11852,12 @@
       <c r="K79" s="43"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="163"/>
-      <c r="B80" s="162"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="163"/>
       <c r="C80" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="164"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="43" t="s">
         <v>19</v>
       </c>
@@ -12112,12 +11873,12 @@
       <c r="K80" s="43"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="163"/>
-      <c r="B81" s="162"/>
+      <c r="A81" s="162"/>
+      <c r="B81" s="163"/>
       <c r="C81" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="164"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="43" t="s">
         <v>19</v>
       </c>
@@ -12133,12 +11894,12 @@
       <c r="K81" s="43"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="163"/>
-      <c r="B82" s="162"/>
+      <c r="A82" s="162"/>
+      <c r="B82" s="163"/>
       <c r="C82" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="45" t="s">
         <v>19</v>
       </c>
@@ -12158,16 +11919,16 @@
       <c r="K82" s="43"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="163">
+      <c r="A83" s="162">
         <v>11</v>
       </c>
-      <c r="B83" s="162" t="s">
+      <c r="B83" s="163" t="s">
         <v>157</v>
       </c>
       <c r="C83" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="164" t="s">
+      <c r="D83" s="165" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="45" t="s">
@@ -12185,12 +11946,12 @@
       <c r="K83" s="43"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="163"/>
-      <c r="B84" s="162"/>
+      <c r="A84" s="162"/>
+      <c r="B84" s="163"/>
       <c r="C84" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="164"/>
+      <c r="D84" s="165"/>
       <c r="E84" s="45" t="s">
         <v>19</v>
       </c>
@@ -12206,12 +11967,12 @@
       <c r="K84" s="43"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="163"/>
-      <c r="B85" s="162"/>
+      <c r="A85" s="162"/>
+      <c r="B85" s="163"/>
       <c r="C85" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="164"/>
+      <c r="D85" s="165"/>
       <c r="E85" s="45" t="s">
         <v>19</v>
       </c>
@@ -12227,12 +11988,12 @@
       <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="163"/>
-      <c r="B86" s="162"/>
+      <c r="A86" s="162"/>
+      <c r="B86" s="163"/>
       <c r="C86" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="164"/>
+      <c r="D86" s="165"/>
       <c r="E86" s="45" t="s">
         <v>19</v>
       </c>
@@ -12252,12 +12013,12 @@
       <c r="K86" s="43"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="163"/>
-      <c r="B87" s="162"/>
+      <c r="A87" s="162"/>
+      <c r="B87" s="163"/>
       <c r="C87" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="164"/>
+      <c r="D87" s="165"/>
       <c r="E87" s="45" t="s">
         <v>19</v>
       </c>
@@ -12277,12 +12038,12 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="163"/>
-      <c r="B88" s="162"/>
+      <c r="A88" s="162"/>
+      <c r="B88" s="163"/>
       <c r="C88" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="164"/>
+      <c r="D88" s="165"/>
       <c r="E88" s="45" t="s">
         <v>80</v>
       </c>
@@ -12301,12 +12062,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="163"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="164"/>
+      <c r="D89" s="165"/>
       <c r="E89" s="45" t="s">
         <v>19</v>
       </c>
@@ -12325,12 +12086,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="163"/>
-      <c r="B90" s="162"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="163"/>
       <c r="C90" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="164"/>
+      <c r="D90" s="165"/>
       <c r="E90" s="45" t="s">
         <v>19</v>
       </c>
@@ -12349,12 +12110,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="163"/>
-      <c r="B91" s="162"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="163"/>
       <c r="C91" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="164"/>
+      <c r="D91" s="165"/>
       <c r="E91" s="45" t="s">
         <v>19</v>
       </c>
@@ -12374,12 +12135,12 @@
       <c r="K91" s="45"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="163"/>
-      <c r="B92" s="162"/>
+      <c r="A92" s="162"/>
+      <c r="B92" s="163"/>
       <c r="C92" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="164"/>
+      <c r="D92" s="165"/>
       <c r="E92" s="44" t="s">
         <v>19</v>
       </c>
@@ -12395,16 +12156,16 @@
       <c r="K92" s="43"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="163">
+      <c r="A93" s="162">
         <v>12</v>
       </c>
-      <c r="B93" s="162" t="s">
+      <c r="B93" s="163" t="s">
         <v>170</v>
       </c>
       <c r="C93" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="162" t="s">
+      <c r="D93" s="163" t="s">
         <v>178</v>
       </c>
       <c r="E93" s="45" t="s">
@@ -12422,12 +12183,12 @@
       <c r="K93" s="43"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="163"/>
-      <c r="B94" s="162"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="163"/>
       <c r="C94" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="162"/>
+      <c r="D94" s="163"/>
       <c r="E94" s="45" t="s">
         <v>19</v>
       </c>
@@ -12443,12 +12204,12 @@
       <c r="K94" s="43"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="163"/>
-      <c r="B95" s="162"/>
+      <c r="A95" s="162"/>
+      <c r="B95" s="163"/>
       <c r="C95" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="162"/>
+      <c r="D95" s="163"/>
       <c r="E95" s="45" t="s">
         <v>19</v>
       </c>
@@ -12464,12 +12225,12 @@
       <c r="K95" s="43"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="163"/>
-      <c r="B96" s="162"/>
+      <c r="A96" s="162"/>
+      <c r="B96" s="163"/>
       <c r="C96" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="162"/>
+      <c r="D96" s="163"/>
       <c r="E96" s="45" t="s">
         <v>19</v>
       </c>
@@ -12489,12 +12250,12 @@
       <c r="K96" s="43"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="163"/>
-      <c r="B97" s="162"/>
+      <c r="A97" s="162"/>
+      <c r="B97" s="163"/>
       <c r="C97" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="162"/>
+      <c r="D97" s="163"/>
       <c r="E97" s="45" t="s">
         <v>19</v>
       </c>
@@ -12514,12 +12275,12 @@
       <c r="K97" s="45"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="163"/>
-      <c r="B98" s="162"/>
+      <c r="A98" s="162"/>
+      <c r="B98" s="163"/>
       <c r="C98" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D98" s="162"/>
+      <c r="D98" s="163"/>
       <c r="E98" s="45" t="s">
         <v>19</v>
       </c>
@@ -12535,12 +12296,12 @@
       <c r="K98" s="43"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="163"/>
-      <c r="B99" s="162"/>
+      <c r="A99" s="162"/>
+      <c r="B99" s="163"/>
       <c r="C99" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="162"/>
+      <c r="D99" s="163"/>
       <c r="E99" s="45" t="s">
         <v>19</v>
       </c>
@@ -12558,12 +12319,12 @@
       <c r="K99" s="43"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="163"/>
-      <c r="B100" s="162"/>
+      <c r="A100" s="162"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="162"/>
+      <c r="D100" s="163"/>
       <c r="E100" s="45" t="s">
         <v>19</v>
       </c>
@@ -12588,6 +12349,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -12596,34 +12385,6 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12930,10 +12691,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="164" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -12956,8 +12717,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="165"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
@@ -12974,8 +12735,8 @@
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
@@ -12992,8 +12753,8 @@
       <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="165"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
@@ -13010,8 +12771,8 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="165"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
@@ -13030,8 +12791,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
@@ -13050,8 +12811,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="43" t="s">
         <v>73</v>
       </c>
@@ -13070,8 +12831,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="43" t="s">
         <v>18</v>
       </c>
@@ -13149,10 +12910,10 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -13176,8 +12937,8 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
@@ -13195,8 +12956,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
@@ -13214,8 +12975,8 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
@@ -13233,8 +12994,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
@@ -13254,8 +13015,8 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
@@ -13275,8 +13036,8 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
@@ -13296,8 +13057,8 @@
       <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="43" t="s">
         <v>16</v>
       </c>
@@ -13317,8 +13078,8 @@
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>17</v>
       </c>
@@ -13338,8 +13099,8 @@
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -13357,8 +13118,8 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="44" t="s">
         <v>84</v>
       </c>
@@ -13378,8 +13139,8 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="162"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="44" t="s">
         <v>85</v>
       </c>
@@ -13399,8 +13160,8 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="43" t="s">
         <v>86</v>
       </c>
@@ -13420,8 +13181,8 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="43" t="s">
         <v>101</v>
       </c>
@@ -13501,16 +13262,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="165" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -13528,12 +13289,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="164"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
@@ -13547,12 +13308,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
@@ -13566,12 +13327,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="45" t="s">
         <v>19</v>
       </c>
@@ -13585,12 +13346,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="164"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -13606,12 +13367,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="164"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -13627,12 +13388,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="45" t="s">
         <v>80</v>
       </c>
@@ -13646,12 +13407,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="164"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -13665,12 +13426,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
@@ -13684,12 +13445,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="164"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="45" t="s">
         <v>19</v>
       </c>
@@ -13705,12 +13466,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="44" t="s">
         <v>19</v>
       </c>
@@ -14162,16 +13923,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="162">
         <v>1</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="162" t="s">
         <v>337</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -14188,12 +13949,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
       <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="43" t="s">
         <v>19</v>
       </c>
@@ -14206,12 +13967,12 @@
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
@@ -14224,12 +13985,12 @@
       <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
@@ -14242,12 +14003,12 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="45" t="s">
         <v>19</v>
       </c>
@@ -14262,12 +14023,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="45" t="s">
         <v>19</v>
       </c>
@@ -14282,12 +14043,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="45" t="s">
         <v>19</v>
       </c>
@@ -14300,12 +14061,12 @@
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="45" t="s">
         <v>19</v>
       </c>
@@ -14318,12 +14079,12 @@
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
